--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F7EC42-4268-4F1E-B642-7B28724CE4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A8314-E7CF-46D1-B00A-C4F3567CE586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="298">
   <si>
     <t>order_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,6 +1173,66 @@
   </si>
   <si>
     <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'user_name', 'tips': '您好, {$info=user_name$}'}, ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nlp意图识别示例]天气查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['寄信']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['转账']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['天气']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气真好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配到天气意图，要回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的哦，愿您的心情和天气一样好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitCheck', 'check_by_nest', {'next': {'天气': ['真好', '不错', '真差']}, }]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1240,13 +1300,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7337E-07AF-4396-B15B-E41B995520D2}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2188,6 +2251,53 @@
       <c r="H25" s="1" t="str">
         <f>VLOOKUP(E25,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!B26,options!A:B, 2,FALSE)</f>
+        <v>场景类</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>VLOOKUP(E26,Collections!A:C,3,FALSE)</f>
+        <v>闲聊</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!B27,options!A:B, 2,FALSE)</f>
+        <v>问答类</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>VLOOKUP(E27,Collections!A:C,3,FALSE)</f>
+        <v>闲聊</v>
       </c>
     </row>
   </sheetData>
@@ -2221,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2825,6 +2935,50 @@
       <c r="G25" s="1" t="str">
         <f>VLOOKUP(A25,StdQuestions!A:F,5,FALSE)</f>
         <v>test_finance</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>VLOOKUP(B26,options!C:D,2,FALSE)</f>
+        <v>文字答案</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>VLOOKUP(A26,StdQuestions!A:F,5,FALSE)</f>
+        <v>test_chat</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>VLOOKUP(B27,options!C:D,2,FALSE)</f>
+        <v>文字答案</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f>VLOOKUP(A27,StdQuestions!A:F,5,FALSE)</f>
+        <v>test_chat</v>
       </c>
     </row>
   </sheetData>
@@ -3216,23 +3370,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" customWidth="1"/>
-    <col min="4" max="5" width="16.06640625" customWidth="1"/>
-    <col min="6" max="6" width="21.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.9296875" style="3" customWidth="1"/>
+    <col min="4" max="6" width="16.06640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="42.1328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.86328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
@@ -3249,52 +3404,97 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="3" t="str">
         <f>VLOOKUP(B2,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="3" t="str">
         <f>VLOOKUP(B3,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>VLOOKUP(B4,Collections!A:C,3,FALSE)</f>
+        <v>闲聊</v>
       </c>
     </row>
   </sheetData>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A8314-E7CF-46D1-B00A-C4F3567CE586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AB1DD-3DE2-4C7A-AF6C-3CF52F8047E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3373,7 +3373,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AB1DD-3DE2-4C7A-AF6C-3CF52F8047E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BF951-058D-4A5D-BFFC-94C365BA61B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
@@ -1168,10 +1168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['InitAsk', 'call_check_fun', 'test_chat', '', {'fun': self.plugins['test']['TestPlugins']['test_call_check_fun'],}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'user_name', 'tips': '您好, {$info=user_name$}'}, ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,6 +1229,10 @@
   </si>
   <si>
     <t>['InitCheck', 'check_by_nest', {'next': {'天气': ['真好', '不错', '真差']}, }]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'call_check_fun', 'test_chat', '', {'fun': ['test', 'TestPlugins', 'test_call_check_fun', {}],}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
@@ -2267,7 +2267,7 @@
         <v>273</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>VLOOKUP(StdQuestions!B26,options!A:B, 2,FALSE)</f>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -2289,7 +2289,7 @@
         <v>273</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G27" s="1" t="str">
         <f>VLOOKUP(StdQuestions!B27,options!A:B, 2,FALSE)</f>
@@ -2333,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2745,7 +2745,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>62</v>
@@ -2770,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>61</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -2948,7 +2948,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(B26,options!C:D,2,FALSE)</f>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F27" s="1" t="str">
         <f>VLOOKUP(B27,options!C:D,2,FALSE)</f>
@@ -3372,7 +3372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>15</v>
@@ -3430,13 +3430,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>265</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I2" s="3" t="str">
         <f>VLOOKUP(B2,Collections!A:C,3,FALSE)</f>
@@ -3457,13 +3457,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>271</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>VLOOKUP(B3,Collections!A:C,3,FALSE)</f>
@@ -3472,25 +3472,25 @@
     </row>
     <row r="4" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>273</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>VLOOKUP(B4,Collections!A:C,3,FALSE)</f>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BF951-058D-4A5D-BFFC-94C365BA61B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10C1CB-E307-4AA2-B5FE-A7DDC88AB2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="292">
   <si>
     <t>order_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,18 +1180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[nlp意图识别示例]天气查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>match_words</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1204,10 +1192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['天气']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1216,19 +1200,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配到天气意图，要回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是的哦，愿您的心情和天气一样好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['InitCheck', 'check_by_nest', {'next': {'天气': ['真好', '不错', '真差']}, }]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,7 +1570,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1646,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7337E-07AF-4396-B15B-E41B995520D2}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2255,48 +2231,23 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>VLOOKUP(StdQuestions!B26,options!A:B, 2,FALSE)</f>
-        <v>场景类</v>
+        <v>问答类</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>VLOOKUP(E26,Collections!A:C,3,FALSE)</f>
-        <v>闲聊</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B27,options!A:B, 2,FALSE)</f>
-        <v>问答类</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>VLOOKUP(E27,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
@@ -2331,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2770,7 +2721,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>61</v>
@@ -2939,16 +2890,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(B26,options!C:D,2,FALSE)</f>
@@ -2956,28 +2907,6 @@
       </c>
       <c r="G26" s="1" t="str">
         <f>VLOOKUP(A26,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f>VLOOKUP(B27,options!C:D,2,FALSE)</f>
-        <v>文字答案</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>VLOOKUP(A27,StdQuestions!A:F,5,FALSE)</f>
         <v>test_chat</v>
       </c>
     </row>
@@ -3370,10 +3299,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3404,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>215</v>
@@ -3430,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>265</v>
@@ -3457,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>271</v>
@@ -3468,33 +3397,6 @@
       <c r="I3" s="3" t="str">
         <f>VLOOKUP(B3,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>VLOOKUP(B4,Collections!A:C,3,FALSE)</f>
-        <v>闲聊</v>
       </c>
     </row>
   </sheetData>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10C1CB-E307-4AA2-B5FE-A7DDC88AB2DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06BD5A-FBD5-40C2-BDE0-A29D7F2426D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="CommonPara" sheetId="6" r:id="rId5"/>
     <sheet name="NlpSureJudgeDict" sheetId="7" r:id="rId6"/>
     <sheet name="NlpPurposConfigDict" sheetId="8" r:id="rId7"/>
-    <sheet name="options" sheetId="5" r:id="rId8"/>
+    <sheet name="UploadFileConfig" sheetId="9" r:id="rId8"/>
+    <sheet name="options" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,6 +69,32 @@
           </rPr>
           <t xml:space="preserve">
 该id并不会直接存入数据库，只是用于与Excel中的Answwers、ExtQuestions记录进行关联</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{25CA1BB8-16B3-45FD-B6E0-AE5FF7325EE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黎慧剑:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+context类对象可以设置特定场景的标准问题参数，可以不通过milvus_id匹配的问题项</t>
         </r>
       </text>
     </comment>
@@ -133,6 +160,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7E0D447A-EEB4-48C9-BABC-96A3710E771E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黎慧剑:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+配置中可以通过通配符{$id=xx$}替代excel文件中标准问题的id"xx"，在数据导入时会自动转换为标准问题的实际id值</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -173,8 +226,116 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>黎慧剑</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{373B5FA0-8C04-490B-9E0F-1ACBBE851B46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黎慧剑:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参数值应为可转换为python对象的字符串(通过eval转换)，特别注意如果是字符类型，应在字符前后带引号，例如'string'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>黎慧剑</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B6CF7E6E-3FB5-4559-BF7E-998F1BBED483}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黎慧剑:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该id值将先和Excel中StdQuestions上的id进行对应，当找不到的情况会认为该id是此前已存入的问题id，将直接与数据库记录相关联</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>黎慧剑</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4C87A712-210A-425E-A339-654C51CB93C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>黎慧剑:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上传文件大小限制，单位为MB，0代表不限制</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="312">
   <si>
     <t>order_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1209,6 +1370,86 @@
   </si>
   <si>
     <t>['InitAsk', 'call_check_fun', 'test_chat', '', {'fun': ['test', 'TestPlugins', 'test_call_check_fun', {}],}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['jpg', 'gif']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/static/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_{$datetime=%Y%m%d%H%M%S$}.{$file_ext=$}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitUploadAfter', 'test', {}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./client/static/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exact_match_words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word_scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exact_ignorecase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignorecase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1625,7 +1866,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2261,18 +2502,24 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{50EBE2C4-FC5E-435A-A8AD-48B15E120E62}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50EBE2C4-FC5E-435A-A8AD-48B15E120E62}">
           <x14:formula1>
             <xm:f>options!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC4D827C-76EC-49B8-B9BB-CDC55420D300}">
           <x14:formula1>
             <xm:f>Collections!$A$2:$A$63</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82855C65-A066-4EC1-AFFC-DF58205BD122}">
+          <x14:formula1>
+            <xm:f>options!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2284,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2940,7 +3187,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3010,11 +3257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5C2EC-15C7-4519-A6BC-AB3FE042D928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5C2EC-15C7-4519-A6BC-AB3FE042D928}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3049,6 +3296,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3057,7 +3305,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3298,111 +3546,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.73046875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="16.06640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="42.1328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.9296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.9296875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="16.06640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="19.265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.06640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.06640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="47.59765625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.1328125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.86328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>VLOOKUP(B2,Collections!A:C,3,FALSE)</f>
+      <c r="J2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="3" t="str">
+        <f>VLOOKUP(D2,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I3" s="3" t="str">
-        <f>VLOOKUP(B3,Collections!A:C,3,FALSE)</f>
+      <c r="J3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f>VLOOKUP(D3,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 K2:K1048576" xr:uid="{89B2C9AF-82C6-4FBB-B080-FE3D31C4841F}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3410,7 +3700,7 @@
           <x14:formula1>
             <xm:f>Collections!$A$2:$A$63</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>D2:D1048576 B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3419,11 +3709,91 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C22ED95-552C-4D5B-97BF-A32CA43B5C39}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.06640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA8D2DD-0462-4D62-B926-068262B813D5}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D06BD5A-FBD5-40C2-BDE0-A29D7F2426D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CE02C-2F80-4261-AB26-AAA3A432FA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="UploadFileConfig" sheetId="9" r:id="rId8"/>
     <sheet name="options" sheetId="5" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">StdQuestions!$A$1:$K$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{25CA1BB8-16B3-45FD-B6E0-AE5FF7325EE0}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{25CA1BB8-16B3-45FD-B6E0-AE5FF7325EE0}">
       <text>
         <r>
           <rPr>
@@ -98,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2549CE5E-B644-4C9E-9720-12A6324A3FB3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2549CE5E-B644-4C9E-9720-12A6324A3FB3}">
       <text>
         <r>
           <rPr>
@@ -335,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="313">
   <si>
     <t>order_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,40 +1302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_chat</t>
-  </si>
-  <si>
-    <t>test_chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_finance</t>
-  </si>
-  <si>
-    <t>test_finance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'sport', 'tips': '结束提问，家在{$info=home$}，职业是{$info=carrier$}，喜欢{$info=sport$}'}, ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'carrier', 'to': {$id=A22$}}, ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'home', 'to': {$id=A21$}}, ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['TestAskPlugins', 'test_pay_fun', 'test_finance', '', {}, 'true', ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['InitAsk', 'save_info', 'test_chat', '', {'info_key': 'user_name', 'tips': '您好, {$info=user_name$}'}, ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,10 +1338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['InitAsk', 'call_check_fun', 'test_chat', '', {'fun': ['test', 'TestPlugins', 'test_call_check_fun', {}],}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upload_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1401,10 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['jpg', 'gif']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/static/upload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1417,10 +1378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['InitUploadAfter', 'test', {}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1450,6 +1407,56 @@
   </si>
   <si>
     <t>ignorecase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitUploadAfter', 'generate_thumbnail', {}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['jpg', 'gif', 'png', 'jpeg']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'save_info', 'chat', '', {'info_key': 'sport', 'tips': '结束提问，家在{$info=home$}，职业是{$info=carrier$}，喜欢{$info=sport$}'}, ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'save_info', 'chat', '', {'info_key': 'carrier', 'to': {$id=A22$}}, ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'save_info', 'chat', '', {'info_key': 'home', 'to': {$id=A21$}}, ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'call_check_fun', 'chat', '', {'fun': ['test', 'TestPlugins', 'test_call_check_fun', {}],}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['InitAsk', 'save_info', 'chat', '', {'info_key': 'user_name', 'tips': '您好, {$info=user_name$}'}, ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['TestAskPlugins', 'test_pay_fun', 'finance', '', {}, True, ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1818,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1834,7 +1841,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1845,7 +1852,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1863,639 +1870,643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7337E-07AF-4396-B15B-E41B995520D2}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F6" sqref="F6:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.06640625" style="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.06640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.06640625" style="1"/>
+    <col min="1" max="2" width="4.46484375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.06640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B2,options!A:B, 2,FALSE)</f>
+      <c r="H2" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C2,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H2" s="1" t="str">
-        <f>VLOOKUP(E2,Collections!A:C,3,FALSE)</f>
+      <c r="I2" s="1" t="str">
+        <f>VLOOKUP(F2,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B3,options!A:B, 2,FALSE)</f>
+      <c r="H3" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C3,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f>VLOOKUP(E3,Collections!A:C,3,FALSE)</f>
+      <c r="I3" s="1" t="str">
+        <f>VLOOKUP(F3,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B4,options!A:B, 2,FALSE)</f>
+      <c r="H4" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C4,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f>VLOOKUP(E4,Collections!A:C,3,FALSE)</f>
+      <c r="I4" s="1" t="str">
+        <f>VLOOKUP(F4,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B5,options!A:B, 2,FALSE)</f>
+      <c r="H5" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C5,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f>VLOOKUP(E5,Collections!A:C,3,FALSE)</f>
+      <c r="I5" s="1" t="str">
+        <f>VLOOKUP(F5,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>-1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B6,options!A:B, 2,FALSE)</f>
+      <c r="H6" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C6,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H6" s="1" t="str">
-        <f>VLOOKUP(E6,Collections!A:C,3,FALSE)</f>
+      <c r="I6" s="1" t="str">
+        <f>VLOOKUP(F6,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>-1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B7,options!A:B, 2,FALSE)</f>
+      <c r="H7" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C7,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H7" s="1" t="str">
-        <f>VLOOKUP(E7,Collections!A:C,3,FALSE)</f>
+      <c r="I7" s="1" t="str">
+        <f>VLOOKUP(F7,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>-1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B8,options!A:B, 2,FALSE)</f>
+      <c r="H8" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C8,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f>VLOOKUP(E8,Collections!A:C,3,FALSE)</f>
+      <c r="I8" s="1" t="str">
+        <f>VLOOKUP(F8,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>-1</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B9,options!A:B, 2,FALSE)</f>
+      <c r="H9" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C9,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H9" s="1" t="str">
-        <f>VLOOKUP(E9,Collections!A:C,3,FALSE)</f>
+      <c r="I9" s="1" t="str">
+        <f>VLOOKUP(F9,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>-1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B10,options!A:B, 2,FALSE)</f>
+      <c r="H10" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C10,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f>VLOOKUP(E10,Collections!A:C,3,FALSE)</f>
+      <c r="I10" s="1" t="str">
+        <f>VLOOKUP(F10,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B11,options!A:B, 2,FALSE)</f>
+      <c r="H11" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C11,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H11" s="1" t="str">
-        <f>VLOOKUP(E11,Collections!A:C,3,FALSE)</f>
+      <c r="I11" s="1" t="str">
+        <f>VLOOKUP(F11,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B12,options!A:B, 2,FALSE)</f>
+      <c r="H12" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C12,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f>VLOOKUP(E12,Collections!A:C,3,FALSE)</f>
+      <c r="I12" s="1" t="str">
+        <f>VLOOKUP(F12,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B13,options!A:B, 2,FALSE)</f>
+      <c r="H13" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C13,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f>VLOOKUP(E13,Collections!A:C,3,FALSE)</f>
+      <c r="I13" s="1" t="str">
+        <f>VLOOKUP(F13,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B14,options!A:B, 2,FALSE)</f>
+      <c r="H14" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C14,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H14" s="1" t="str">
-        <f>VLOOKUP(E14,Collections!A:C,3,FALSE)</f>
+      <c r="I14" s="1" t="str">
+        <f>VLOOKUP(F14,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B15,options!A:B, 2,FALSE)</f>
+      <c r="H15" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C15,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H15" s="1" t="str">
-        <f>VLOOKUP(E15,Collections!A:C,3,FALSE)</f>
+      <c r="I15" s="1" t="str">
+        <f>VLOOKUP(F15,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>-1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B16,options!A:B, 2,FALSE)</f>
+      <c r="H16" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C16,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H16" s="1" t="str">
-        <f>VLOOKUP(E16,Collections!A:C,3,FALSE)</f>
+      <c r="I16" s="1" t="str">
+        <f>VLOOKUP(F16,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>-1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B17,options!A:B, 2,FALSE)</f>
+      <c r="H17" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C17,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H17" s="1" t="str">
-        <f>VLOOKUP(E17,Collections!A:C,3,FALSE)</f>
+      <c r="I17" s="1" t="str">
+        <f>VLOOKUP(F17,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B18,options!A:B, 2,FALSE)</f>
+      <c r="H18" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C18,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f>VLOOKUP(E18,Collections!A:C,3,FALSE)</f>
+      <c r="I18" s="1" t="str">
+        <f>VLOOKUP(F18,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B19,options!A:B, 2,FALSE)</f>
+      <c r="H19" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C19,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H19" s="1" t="str">
-        <f>VLOOKUP(E19,Collections!A:C,3,FALSE)</f>
+      <c r="I19" s="1" t="str">
+        <f>VLOOKUP(F19,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B20,options!A:B, 2,FALSE)</f>
+      <c r="H20" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C20,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H20" s="1" t="str">
-        <f>VLOOKUP(E20,Collections!A:C,3,FALSE)</f>
+      <c r="I20" s="1" t="str">
+        <f>VLOOKUP(F20,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B21,options!A:B, 2,FALSE)</f>
+      <c r="H21" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C21,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H21" s="1" t="str">
-        <f>VLOOKUP(E21,Collections!A:C,3,FALSE)</f>
+      <c r="I21" s="1" t="str">
+        <f>VLOOKUP(F21,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>-1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B22,options!A:B, 2,FALSE)</f>
+      <c r="H22" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C22,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H22" s="1" t="str">
-        <f>VLOOKUP(E22,Collections!A:C,3,FALSE)</f>
+      <c r="I22" s="1" t="str">
+        <f>VLOOKUP(F22,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>-1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B23,options!A:B, 2,FALSE)</f>
+      <c r="H23" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C23,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H23" s="1" t="str">
-        <f>VLOOKUP(E23,Collections!A:C,3,FALSE)</f>
+      <c r="I23" s="1" t="str">
+        <f>VLOOKUP(F23,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>-1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B24,options!A:B, 2,FALSE)</f>
+      <c r="H24" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C24,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H24" s="1" t="str">
-        <f>VLOOKUP(E24,Collections!A:C,3,FALSE)</f>
+      <c r="I24" s="1" t="str">
+        <f>VLOOKUP(F24,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>-1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="F25" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B25,options!A:B, 2,FALSE)</f>
+      <c r="H25" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C25,options!A:B, 2,FALSE)</f>
         <v>场景类</v>
       </c>
-      <c r="H25" s="1" t="str">
-        <f>VLOOKUP(E25,Collections!A:C,3,FALSE)</f>
+      <c r="I25" s="1" t="str">
+        <f>VLOOKUP(F25,Collections!A:C,3,FALSE)</f>
         <v>金融知识</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>VLOOKUP(StdQuestions!B26,options!A:B, 2,FALSE)</f>
+        <v>303</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>VLOOKUP(StdQuestions!C26,options!A:B, 2,FALSE)</f>
         <v>问答类</v>
       </c>
-      <c r="H26" s="1" t="str">
-        <f>VLOOKUP(E26,Collections!A:C,3,FALSE)</f>
+      <c r="I26" s="1" t="str">
+        <f>VLOOKUP(F26,Collections!A:C,3,FALSE)</f>
         <v>闲聊</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K26" xr:uid="{ECF74DE0-E6A6-45B5-803C-39376CB22FBF}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{EAAEDC13-BEC3-4D91-8D34-42A03686CE25}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{EAAEDC13-BEC3-4D91-8D34-42A03686CE25}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2507,19 +2518,19 @@
           <x14:formula1>
             <xm:f>options!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC4D827C-76EC-49B8-B9BB-CDC55420D300}">
           <x14:formula1>
             <xm:f>Collections!$A$2:$A$63</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82855C65-A066-4EC1-AFFC-DF58205BD122}">
           <x14:formula1>
             <xm:f>options!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2531,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2591,9 +2602,9 @@
         <f>VLOOKUP(B2,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>VLOOKUP(A2,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G2" s="1">
+        <f>VLOOKUP(A2,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2613,9 +2624,9 @@
         <f>VLOOKUP(B3,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>VLOOKUP(A3,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G3" s="1">
+        <f>VLOOKUP(A3,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2635,9 +2646,9 @@
         <f>VLOOKUP(B4,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>VLOOKUP(A4,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G4" s="1">
+        <f>VLOOKUP(A4,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
@@ -2660,9 +2671,9 @@
         <f>VLOOKUP(B5,options!C:D,2,FALSE)</f>
         <v>选项</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f>VLOOKUP(A5,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G5" s="1">
+        <f>VLOOKUP(A5,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="69.400000000000006" x14ac:dyDescent="0.4">
@@ -2682,9 +2693,9 @@
         <f>VLOOKUP(B6,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f>VLOOKUP(A6,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G6" s="1">
+        <f>VLOOKUP(A6,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="97.15" x14ac:dyDescent="0.4">
@@ -2704,9 +2715,9 @@
         <f>VLOOKUP(B7,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f>VLOOKUP(A7,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G7" s="1">
+        <f>VLOOKUP(A7,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
@@ -2729,9 +2740,9 @@
         <f>VLOOKUP(B8,options!C:D,2,FALSE)</f>
         <v>选项</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>VLOOKUP(A8,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G8" s="1">
+        <f>VLOOKUP(A8,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2751,9 +2762,9 @@
         <f>VLOOKUP(B9,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f>VLOOKUP(A9,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G9" s="1">
+        <f>VLOOKUP(A9,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -2773,9 +2784,9 @@
         <f>VLOOKUP(B10,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f>VLOOKUP(A10,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G10" s="1">
+        <f>VLOOKUP(A10,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -2795,9 +2806,9 @@
         <f>VLOOKUP(B11,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f>VLOOKUP(A11,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G11" s="1">
+        <f>VLOOKUP(A11,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2817,9 +2828,9 @@
         <f>VLOOKUP(B12,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f>VLOOKUP(A12,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G12" s="1">
+        <f>VLOOKUP(A12,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -2839,9 +2850,9 @@
         <f>VLOOKUP(B13,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f>VLOOKUP(A13,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G13" s="1">
+        <f>VLOOKUP(A13,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="27.75" x14ac:dyDescent="0.4">
@@ -2864,9 +2875,9 @@
         <f>VLOOKUP(B14,options!C:D,2,FALSE)</f>
         <v>执行任务</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f>VLOOKUP(A14,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G14" s="1">
+        <f>VLOOKUP(A14,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -2886,9 +2897,9 @@
         <f>VLOOKUP(B15,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f>VLOOKUP(A15,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G15" s="1">
+        <f>VLOOKUP(A15,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -2908,9 +2919,9 @@
         <f>VLOOKUP(B16,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f>VLOOKUP(A16,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G16" s="1">
+        <f>VLOOKUP(A16,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -2930,9 +2941,9 @@
         <f>VLOOKUP(B17,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f>VLOOKUP(A17,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G17" s="1">
+        <f>VLOOKUP(A17,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
@@ -2943,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>62</v>
@@ -2955,9 +2966,9 @@
         <f>VLOOKUP(B18,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f>VLOOKUP(A18,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G18" s="1">
+        <f>VLOOKUP(A18,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
@@ -2968,7 +2979,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>61</v>
@@ -2980,9 +2991,9 @@
         <f>VLOOKUP(B19,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f>VLOOKUP(A19,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G19" s="1">
+        <f>VLOOKUP(A19,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="55.5" x14ac:dyDescent="0.4">
@@ -3005,9 +3016,9 @@
         <f>VLOOKUP(B20,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G20" s="1" t="str">
-        <f>VLOOKUP(A20,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G20" s="1">
+        <f>VLOOKUP(A20,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
@@ -3018,7 +3029,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>61</v>
@@ -3030,9 +3041,9 @@
         <f>VLOOKUP(B21,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G21" s="1" t="str">
-        <f>VLOOKUP(A21,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G21" s="1">
+        <f>VLOOKUP(A21,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
@@ -3043,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>61</v>
@@ -3055,9 +3066,9 @@
         <f>VLOOKUP(B22,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G22" s="1" t="str">
-        <f>VLOOKUP(A22,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G22" s="1">
+        <f>VLOOKUP(A22,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="41.65" x14ac:dyDescent="0.4">
@@ -3068,7 +3079,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>263</v>
@@ -3080,9 +3091,9 @@
         <f>VLOOKUP(B23,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G23" s="1" t="str">
-        <f>VLOOKUP(A23,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G23" s="1">
+        <f>VLOOKUP(A23,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
@@ -3105,12 +3116,12 @@
         <f>VLOOKUP(B24,options!C:D,2,FALSE)</f>
         <v>执行任务</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <f>VLOOKUP(A24,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G24" s="1">
+        <f>VLOOKUP(A24,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -3118,7 +3129,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>263</v>
@@ -3130,31 +3141,31 @@
         <f>VLOOKUP(B25,options!C:D,2,FALSE)</f>
         <v>上下文问题</v>
       </c>
-      <c r="G25" s="1" t="str">
-        <f>VLOOKUP(A25,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_finance</v>
+      <c r="G25" s="1">
+        <f>VLOOKUP(A25,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F26" s="1" t="str">
         <f>VLOOKUP(B26,options!C:D,2,FALSE)</f>
         <v>文字答案</v>
       </c>
-      <c r="G26" s="1" t="str">
-        <f>VLOOKUP(A26,StdQuestions!A:F,5,FALSE)</f>
-        <v>test_chat</v>
+      <c r="G26" s="1">
+        <f>VLOOKUP(A26,StdQuestions!A:G,5,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3198,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3220,8 +3231,8 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>VLOOKUP(B2,StdQuestions!A:F,6,FALSE)</f>
-        <v>你好</v>
+        <f>VLOOKUP(B2,StdQuestions!A:G,6,FALSE)</f>
+        <v>chat</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -3232,8 +3243,8 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>VLOOKUP(B3,StdQuestions!A:F,6,FALSE)</f>
-        <v>你叫什么名字</v>
+        <f>VLOOKUP(B3,StdQuestions!A:G,6,FALSE)</f>
+        <v>chat</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -3244,8 +3255,8 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>VLOOKUP(B4,StdQuestions!A:F,6,FALSE)</f>
-        <v>你叫什么名字</v>
+        <f>VLOOKUP(B4,StdQuestions!A:G,6,FALSE)</f>
+        <v>chat</v>
       </c>
     </row>
   </sheetData>
@@ -3549,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1470BD2F-F7ED-4FF9-A933-0B9C19099E9A}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3575,10 +3586,10 @@
         <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -3593,25 +3604,25 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -3622,7 +3633,7 @@
         <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>260</v>
@@ -3631,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -3643,7 +3654,7 @@
         <v>265</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O2" s="3" t="str">
         <f>VLOOKUP(D2,Collections!A:C,3,FALSE)</f>
@@ -3655,7 +3666,7 @@
         <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>266</v>
@@ -3664,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L3" s="3">
         <v>0</v>
@@ -3676,7 +3687,7 @@
         <v>271</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O3" s="3" t="str">
         <f>VLOOKUP(D3,Collections!A:C,3,FALSE)</f>
@@ -3712,9 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C22ED95-552C-4D5B-97BF-A32CA43B5C39}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3730,25 +3739,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
@@ -3756,28 +3765,28 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3792,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA8D2DD-0462-4D62-B926-068262B813D5}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/test/questions.xlsx
+++ b/test/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\chat_robot\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953CE02C-2F80-4261-AB26-AAA3A432FA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D466C-7CA3-4C52-BFE6-84D21B3D6A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collections" sheetId="1" r:id="rId1"/>
@@ -1873,7 +1873,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2542,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB825D7D-6063-4E30-9A6B-6A302A70603D}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3723,7 +3723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C22ED95-552C-4D5B-97BF-A32CA43B5C39}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
